--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Insl3</t>
+  </si>
+  <si>
+    <t>Rxfp2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Insl3</t>
-  </si>
-  <si>
-    <t>Rxfp2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.047883</v>
+        <v>1.416173666666667</v>
       </c>
       <c r="H2">
-        <v>3.143649</v>
+        <v>4.248521</v>
       </c>
       <c r="I2">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +558,22 @@
         <v>0.000437</v>
       </c>
       <c r="O2">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P2">
+        <v>0.007621206836414371</v>
+      </c>
+      <c r="Q2">
+        <v>0.0002062892974444444</v>
+      </c>
+      <c r="R2">
+        <v>0.001856603677</v>
+      </c>
+      <c r="S2">
         <v>0.00762120683641437</v>
       </c>
-      <c r="Q2">
-        <v>0.0001526416236666666</v>
-      </c>
-      <c r="R2">
-        <v>0.001373774613</v>
-      </c>
-      <c r="S2">
-        <v>0.005229352608311078</v>
-      </c>
       <c r="T2">
-        <v>0.005229352608311079</v>
+        <v>0.007621206836414371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.047883</v>
+        <v>1.416173666666667</v>
       </c>
       <c r="H3">
-        <v>3.143649</v>
+        <v>4.248521</v>
       </c>
       <c r="I3">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>0.003259</v>
       </c>
       <c r="O3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q3">
-        <v>0.001138350232333333</v>
+        <v>0.001538436659888889</v>
       </c>
       <c r="R3">
-        <v>0.010245152091</v>
+        <v>0.013845929939</v>
       </c>
       <c r="S3">
-        <v>0.03899876464642061</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="T3">
-        <v>0.03899876464642061</v>
+        <v>0.05683641437042205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.047883</v>
+        <v>1.416173666666667</v>
       </c>
       <c r="H4">
-        <v>3.143649</v>
+        <v>4.248521</v>
       </c>
       <c r="I4">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6861580745092843</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N4">
         <v>0.053644</v>
@@ -691,388 +688,16 @@
         <v>0.9355423787931636</v>
       </c>
       <c r="Q4">
-        <v>0.01873754521733333</v>
+        <v>0.02532307339155555</v>
       </c>
       <c r="R4">
-        <v>0.168637906956</v>
+        <v>0.227907660524</v>
       </c>
       <c r="S4">
-        <v>0.6419299572545527</v>
+        <v>0.9355423787931636</v>
       </c>
       <c r="T4">
-        <v>0.6419299572545527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.432622</v>
-      </c>
-      <c r="H5">
-        <v>1.297866</v>
-      </c>
-      <c r="I5">
-        <v>0.2832826551345481</v>
-      </c>
-      <c r="J5">
-        <v>0.283282655134548</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.0001456666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.000437</v>
-      </c>
-      <c r="O5">
-        <v>0.007621206836414369</v>
-      </c>
-      <c r="P5">
-        <v>0.00762120683641437</v>
-      </c>
-      <c r="Q5">
-        <v>6.301860466666667E-05</v>
-      </c>
-      <c r="R5">
-        <v>0.000567167442</v>
-      </c>
-      <c r="S5">
-        <v>0.002158955707949032</v>
-      </c>
-      <c r="T5">
-        <v>0.002158955707949032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.432622</v>
-      </c>
-      <c r="H6">
-        <v>1.297866</v>
-      </c>
-      <c r="I6">
-        <v>0.2832826551345481</v>
-      </c>
-      <c r="J6">
-        <v>0.283282655134548</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.001086333333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.003259</v>
-      </c>
-      <c r="O6">
-        <v>0.05683641437042204</v>
-      </c>
-      <c r="P6">
-        <v>0.05683641437042204</v>
-      </c>
-      <c r="Q6">
-        <v>0.0004699716993333334</v>
-      </c>
-      <c r="R6">
-        <v>0.004229745294</v>
-      </c>
-      <c r="S6">
-        <v>0.01610077037118054</v>
-      </c>
-      <c r="T6">
-        <v>0.01610077037118054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.432622</v>
-      </c>
-      <c r="H7">
-        <v>1.297866</v>
-      </c>
-      <c r="I7">
-        <v>0.2832826551345481</v>
-      </c>
-      <c r="J7">
-        <v>0.283282655134548</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01788133333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.053644</v>
-      </c>
-      <c r="O7">
         <v>0.9355423787931636</v>
-      </c>
-      <c r="P7">
-        <v>0.9355423787931636</v>
-      </c>
-      <c r="Q7">
-        <v>0.007735858189333335</v>
-      </c>
-      <c r="R7">
-        <v>0.06962272370400001</v>
-      </c>
-      <c r="S7">
-        <v>0.2650229290554185</v>
-      </c>
-      <c r="T7">
-        <v>0.2650229290554185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04666933333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.140008</v>
-      </c>
-      <c r="I8">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="J8">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0001456666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.000437</v>
-      </c>
-      <c r="O8">
-        <v>0.007621206836414369</v>
-      </c>
-      <c r="P8">
-        <v>0.00762120683641437</v>
-      </c>
-      <c r="Q8">
-        <v>6.798166222222223E-06</v>
-      </c>
-      <c r="R8">
-        <v>6.1183496E-05</v>
-      </c>
-      <c r="S8">
-        <v>0.0002328985201542594</v>
-      </c>
-      <c r="T8">
-        <v>0.0002328985201542594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04666933333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.140008</v>
-      </c>
-      <c r="I9">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="J9">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.001086333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.003259</v>
-      </c>
-      <c r="O9">
-        <v>0.05683641437042204</v>
-      </c>
-      <c r="P9">
-        <v>0.05683641437042204</v>
-      </c>
-      <c r="Q9">
-        <v>5.069845244444445E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000456286072</v>
-      </c>
-      <c r="S9">
-        <v>0.001736879352820896</v>
-      </c>
-      <c r="T9">
-        <v>0.001736879352820896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04666933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.140008</v>
-      </c>
-      <c r="I10">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="J10">
-        <v>0.03055927035616759</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01788133333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.053644</v>
-      </c>
-      <c r="O10">
-        <v>0.9355423787931636</v>
-      </c>
-      <c r="P10">
-        <v>0.9355423787931636</v>
-      </c>
-      <c r="Q10">
-        <v>0.0008345099057777779</v>
-      </c>
-      <c r="R10">
-        <v>0.007510589152</v>
-      </c>
-      <c r="S10">
-        <v>0.02858949248319244</v>
-      </c>
-      <c r="T10">
-        <v>0.02858949248319243</v>
       </c>
     </row>
   </sheetData>
